--- a/SampleVarListSmaller.xlsx
+++ b/SampleVarListSmaller.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherspiteri/Masters/Masters-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C7C05-F686-5341-BDC3-7BCB3ABFA265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F454934-CCD2-B14A-BF9C-749196883F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="11700" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t>##reference=hg19</t>
-  </si>
-  <si>
-    <t>##MyVariantDB=MyVariantDefaultDb_hg19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Locus</t>
   </si>
@@ -89,6 +83,15 @@
   </si>
   <si>
     <t>A/T</t>
+  </si>
+  <si>
+    <t>Sample Ids</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
   </si>
 </sst>
 </file>
@@ -143,12 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,132 +1283,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I3" sqref="A3:I3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="8.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1412,10 +1401,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1423,10 +1412,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1435,9 +1424,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1445,10 +1434,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1456,10 +1445,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1467,10 +1456,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:10" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1478,10 +1467,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1489,10 +1478,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1500,10 +1489,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1511,7 +1500,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleVarListSmaller.xlsx
+++ b/SampleVarListSmaller.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estherspiteri/Masters/Masters-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F454934-CCD2-B14A-BF9C-749196883F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C88851-8D20-6943-9663-12E25D9F89CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Locus</t>
   </si>
@@ -31,24 +44,15 @@
     <t>Type</t>
   </si>
   <si>
-    <t>FlagType</t>
-  </si>
-  <si>
     <t>Genotype</t>
   </si>
   <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Observed Allele</t>
-  </si>
-  <si>
     <t>Classification</t>
   </si>
   <si>
-    <t>Variant Id</t>
-  </si>
-  <si>
     <t>chr1:3321445</t>
   </si>
   <si>
@@ -58,9 +62,6 @@
     <t>SNV</t>
   </si>
   <si>
-    <t>IMPORTANT</t>
-  </si>
-  <si>
     <t>G/A</t>
   </si>
   <si>
@@ -76,29 +77,122 @@
     <t>T</t>
   </si>
   <si>
-    <t>LOC108783645,HFE</t>
-  </si>
-  <si>
-    <t>chr6:26091185</t>
-  </si>
-  <si>
-    <t>A/T</t>
-  </si>
-  <si>
     <t>Sample Ids</t>
   </si>
   <si>
-    <t>1,3,4</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
+    <t>chr17:41242998</t>
+  </si>
+  <si>
+    <t>G/C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>UNCERTAIN_SIGNIFICANCE</t>
+  </si>
+  <si>
+    <t>BRCA1, HPO</t>
+  </si>
+  <si>
+    <t>Literature Links</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/36385461/| https://pubmed.ncbi.nlm.nih.gov/29487695</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/d41586-024-00408-x | https://www.nature.com/articles/s41586-024-07191-9 | https://pubmed.ncbi.nlm.nih.gov/29487695</t>
+  </si>
+  <si>
+    <t>chr1:25883750</t>
+  </si>
+  <si>
+    <t>LDLRAP1</t>
+  </si>
+  <si>
+    <t>C/T</t>
+  </si>
+  <si>
+    <t>chr10:121436513</t>
+  </si>
+  <si>
+    <t>BAG3, HFO</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Sample Phenotypes</t>
+  </si>
+  <si>
+    <t>Prolonged Qt Intervalis</t>
+  </si>
+  <si>
+    <t>Right Ventricular Cardiomyopathy,Arrhythmiak</t>
+  </si>
+  <si>
+    <t>Hypertrophic Cardiomyopathy,Aortic Root Aneurysm, Arrhythmiak</t>
+  </si>
+  <si>
+    <t>R58238_v1112382</t>
+  </si>
+  <si>
+    <t>R55480_v1_c23882_2022-03-07-13-28-08-047112382</t>
+  </si>
+  <si>
+    <t>R55479_v1_c23844_2022-03-07-13-28-08-0471123982, R58238_v1112382</t>
+  </si>
+  <si>
+    <t>ACMG Rules</t>
+  </si>
+  <si>
+    <t>PM3, PM6,PP1</t>
+  </si>
+  <si>
+    <t>BP2</t>
+  </si>
+  <si>
+    <t>PP1, PP4, BS4</t>
+  </si>
+  <si>
+    <t>SDHA</t>
+  </si>
+  <si>
+    <t>Hypertrophic Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>chr5:236619</t>
+  </si>
+  <si>
+    <t>T/C</t>
+  </si>
+  <si>
+    <t>HGVS</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>NM_007078.3:c.158A&gt;G(p.Asp53Gly)</t>
+  </si>
+  <si>
+    <t>ENST00000366667:c.803C&gt;T</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -110,16 +204,43 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,19 +263,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1283,33 +1436,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="8.83203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="7" width="8.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="126.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1318,115 +1477,231 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3"/>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1435,9 +1710,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1446,9 +1722,10 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1457,9 +1734,10 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1468,9 +1746,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1479,9 +1758,10 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1490,20 +1770,50 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
+    <row r="15" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="19" spans="1:37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AK20" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="https://www.nature.com/articles/d41586-024-00408-x | " xr:uid="{028ECEDC-AC64-FE43-A9AC-3904D5EA0420}"/>
+    <hyperlink ref="K3" r:id="rId2" display="https://pubmed.ncbi.nlm.nih.gov/36385461/" xr:uid="{2DC82477-05CD-4142-9188-9E1FA83AC78B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
